--- a/OnBoard/output/trust/bio/Bio_Trust_74.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_74.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +524,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +561,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +576,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +613,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F5">
@@ -618,14 +628,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I5">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +650,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +665,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +680,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +697,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +712,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F7">
@@ -712,14 +727,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="I7">
-        <v>58</v>
+        <v>414</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L7">
@@ -729,7 +749,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +764,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F8">
@@ -759,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +796,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,12 +811,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F9">
@@ -806,14 +826,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L9">
@@ -823,7 +843,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,12 +858,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F10">
@@ -853,14 +873,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>78</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L10">
@@ -870,7 +890,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -885,7 +905,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -917,7 +937,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -932,12 +952,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F12">
@@ -947,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -964,7 +984,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,12 +999,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F13">
@@ -994,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1011,7 +1031,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1026,12 +1046,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F14">
@@ -1041,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1058,7 +1078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1073,12 +1093,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,14 +1108,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>76</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L15">
@@ -1105,7 +1125,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1120,12 +1140,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F16">
@@ -1135,14 +1155,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L16">
@@ -1152,7 +1172,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1167,12 +1187,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F17">
@@ -1185,11 +1205,11 @@
         <v>149</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L17">
@@ -1199,7 +1219,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1214,12 +1234,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F18">
@@ -1229,14 +1249,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L18">
@@ -1246,7 +1266,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1261,12 +1281,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F19">
@@ -1276,14 +1296,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L19">
@@ -1293,7 +1313,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1308,12 +1328,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F20">
@@ -1323,14 +1343,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L20">
@@ -1340,7 +1360,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1355,12 +1375,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F21">
@@ -1370,14 +1390,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L21">
@@ -1387,7 +1407,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1402,12 +1422,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F22">
@@ -1417,14 +1437,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L22">
@@ -1434,7 +1454,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1449,12 +1469,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F23">
@@ -1464,14 +1484,14 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L23">
@@ -1481,7 +1501,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1496,12 +1516,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F24">
@@ -1511,14 +1531,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L24">
@@ -1528,7 +1548,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1543,12 +1563,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F25">
@@ -1558,14 +1578,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L25">
@@ -1575,7 +1595,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1590,12 +1610,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F26">
@@ -1605,14 +1625,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L26">
@@ -1622,7 +1642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1637,12 +1657,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F27">
@@ -1652,14 +1672,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L27">
@@ -1669,7 +1689,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1684,12 +1704,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F28">
@@ -1699,19 +1719,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="I28">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L28">
@@ -1721,7 +1736,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1736,12 +1751,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F29">
@@ -1751,19 +1766,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="I29">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L29">
@@ -1773,7 +1783,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1788,12 +1798,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F30">
@@ -1803,14 +1813,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="I30">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L30">
@@ -1820,7 +1830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1835,12 +1845,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F31">
@@ -1850,29 +1860,24 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I31">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L31">
         <v>0</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1887,12 +1892,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F32">
@@ -1902,19 +1907,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I32">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L32">
@@ -1924,7 +1924,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1939,12 +1939,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F33">
@@ -1954,19 +1954,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I33">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L33">
@@ -1976,7 +1971,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1991,12 +1986,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F34">
@@ -2006,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2023,7 +2018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2038,12 +2033,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F35">
@@ -2053,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2070,7 +2065,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2085,12 +2080,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F36">
@@ -2100,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2117,7 +2112,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2132,12 +2127,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F37">
@@ -2147,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2164,7 +2159,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2179,12 +2174,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F38">
@@ -2194,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -2211,7 +2206,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2226,12 +2221,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F39">
@@ -2241,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -2258,7 +2253,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2273,12 +2268,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F40">
@@ -2288,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -2305,7 +2300,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2320,12 +2315,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F41">
@@ -2335,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="I41">
         <v>-1</v>
@@ -2352,7 +2347,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2367,12 +2362,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F42">
@@ -2382,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -2399,7 +2394,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2414,12 +2409,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F43">
@@ -2429,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2446,7 +2441,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2461,12 +2456,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F44">
@@ -2476,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2493,7 +2488,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2508,12 +2503,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F45">
@@ -2523,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2540,7 +2535,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2555,12 +2550,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F46">
@@ -2570,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2587,7 +2582,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2602,12 +2597,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F47">
@@ -2617,19 +2612,14 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="I47">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L47">
@@ -2639,7 +2629,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2654,12 +2644,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F48">
@@ -2669,14 +2659,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2686,7 +2676,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2701,12 +2691,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F49">
@@ -2716,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I49">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2728,22 +2718,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L49">
         <v>0</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2758,12 +2743,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DACTVOL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F50">
@@ -2773,14 +2758,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I50">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L50">
@@ -2790,7 +2780,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2805,12 +2795,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F51">
@@ -2820,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="I51">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2832,7 +2822,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L51">
@@ -2842,7 +2832,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2862,7 +2852,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F52">
@@ -2872,19 +2862,19 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I52">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L52">
@@ -2894,7 +2884,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2914,7 +2904,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F53">
@@ -2924,10 +2914,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I53">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2936,7 +2926,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L53">
@@ -2946,7 +2936,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2966,7 +2956,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F54">
@@ -2976,24 +2966,34 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="I54">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L54">
         <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>NA w inferred l inferred</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F55">
@@ -3023,14 +3023,19 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L55">
@@ -3040,7 +3045,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3060,7 +3065,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F56">
@@ -3070,24 +3075,34 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L56">
         <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3117,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3129,7 +3144,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L57">
@@ -3139,7 +3154,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3169,19 +3184,14 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I58">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L58">
@@ -3191,7 +3201,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3221,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I59">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3243,7 +3253,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3276,11 +3286,16 @@
         <v>36</v>
       </c>
       <c r="I60">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L60">
@@ -3290,7 +3305,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3320,19 +3335,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I61">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L61">
@@ -3342,7 +3352,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3357,12 +3367,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F62">
@@ -3372,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="I62">
         <v>-1</v>
@@ -3389,7 +3399,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3404,12 +3414,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F63">
@@ -3419,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="I63">
         <v>-1</v>
@@ -3436,7 +3446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3451,12 +3461,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F64">
@@ -3466,14 +3476,14 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="I64">
-        <v>-1</v>
+        <v>81</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L64">
@@ -3483,7 +3493,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3498,12 +3508,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F65">
@@ -3513,14 +3523,14 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L65">
@@ -3530,7 +3540,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3545,12 +3555,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F66">
@@ -3560,14 +3570,14 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>119</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L66">
@@ -3577,7 +3587,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3592,12 +3602,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F67">
@@ -3607,14 +3617,14 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I67">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L67">
@@ -3624,7 +3634,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3639,12 +3649,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F68">
@@ -3654,14 +3664,14 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="I68">
-        <v>-1</v>
+        <v>86</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L68">
@@ -3671,7 +3681,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3686,12 +3696,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F69">
@@ -3701,14 +3711,14 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I69">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L69">
@@ -3718,7 +3728,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3733,12 +3743,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F70">
@@ -3748,14 +3758,14 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="I70">
-        <v>-1</v>
+        <v>76</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L70">
@@ -3765,7 +3775,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3780,12 +3790,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F71">
@@ -3795,14 +3805,14 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="I71">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L71">
@@ -3812,7 +3822,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3827,12 +3837,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F72">
@@ -3842,19 +3852,14 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="I72">
         <v>46</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L72">
@@ -3864,7 +3869,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3879,12 +3884,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F73">
@@ -3894,14 +3899,14 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="I73">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L73">
@@ -3911,7 +3916,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3926,12 +3931,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F74">
@@ -3941,19 +3946,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="I74">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L74">
@@ -3963,7 +3963,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F75">
@@ -3993,14 +3993,14 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="I75">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L75">
@@ -4010,7 +4010,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4025,12 +4025,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F76">
@@ -4040,14 +4040,14 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="I76">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L76">
@@ -4057,7 +4057,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4072,12 +4072,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F77">
@@ -4087,14 +4087,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="I77">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L77">
@@ -4104,7 +4104,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F78">
@@ -4134,14 +4134,14 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="I78">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L78">
@@ -4151,7 +4151,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F79">
@@ -4181,14 +4181,14 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="I79">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L79">
@@ -4198,7 +4198,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F80">
@@ -4228,14 +4228,14 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>282</v>
+        <v>154</v>
       </c>
       <c r="I80">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L80">
@@ -4245,7 +4245,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F81">
@@ -4275,14 +4275,14 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="I81">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L81">
@@ -4292,7 +4292,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4307,12 +4307,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F82">
@@ -4322,14 +4322,14 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="I82">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L82">
@@ -4339,7 +4339,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4354,12 +4354,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SCORPOR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F83">
@@ -4369,14 +4369,14 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="I83">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L83">
@@ -4386,7 +4386,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F84">
@@ -4416,14 +4416,14 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I84">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L84">
@@ -4433,7 +4433,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F85">
@@ -4463,19 +4463,14 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L85">
@@ -4485,7 +4480,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4500,12 +4495,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F86">
@@ -4515,19 +4510,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I86">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L86">
@@ -4537,7 +4527,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4552,12 +4542,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F87">
@@ -4567,19 +4557,14 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I87">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L87">
@@ -4589,7 +4574,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4604,12 +4589,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F88">
@@ -4619,19 +4604,14 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L88">
@@ -4641,7 +4621,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4661,7 +4641,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F89">
@@ -4671,19 +4651,14 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L89">
@@ -4693,7 +4668,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4708,12 +4683,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F90">
@@ -4723,14 +4698,14 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L90">
@@ -4740,7 +4715,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4760,7 +4735,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F91">
@@ -4770,34 +4745,24 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="I91">
-        <v>133</v>
+        <v>-1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L91">
         <v>0</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>SS7967</t>
-        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4817,7 +4782,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F92">
@@ -4827,34 +4792,24 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="I92">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L92">
         <v>0</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>SS7968</t>
-        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4874,7 +4829,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F93">
@@ -4884,34 +4839,24 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="I93">
-        <v>153</v>
+        <v>-1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L93">
         <v>0</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>SS7969</t>
-        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4931,7 +4876,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F94">
@@ -4941,34 +4886,24 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="I94">
-        <v>184</v>
+        <v>-1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L94">
         <v>0</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>SS7970</t>
-        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4988,7 +4923,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F95">
@@ -4998,34 +4933,24 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="I95">
-        <v>135</v>
+        <v>-1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L95">
         <v>0</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>SS7971</t>
-        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5045,7 +4970,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F96">
@@ -5055,34 +4980,24 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="I96">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L96">
         <v>0</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>SS7972</t>
-        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5102,7 +5017,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F97">
@@ -5112,39 +5027,24 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>428</v>
+        <v>149</v>
       </c>
       <c r="I97">
-        <v>1167</v>
+        <v>-1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L97">
         <v>0</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>SR480</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>liver 25 g, gonads 23 g: histo 11,6 g fec 10,7 g</t>
-        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5159,12 +5059,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F98">
@@ -5174,34 +5074,24 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="I98">
-        <v>106</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>HOLRM-4</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L98">
         <v>0</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>SS7973</t>
-        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5216,12 +5106,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F99">
@@ -5231,34 +5121,24 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I99">
-        <v>173</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L99">
         <v>0</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>SS7974</t>
-        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5273,12 +5153,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F100">
@@ -5288,34 +5168,24 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="I100">
-        <v>101</v>
+        <v>-1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L100">
         <v>0</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>SS7975</t>
-        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5330,12 +5200,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F101">
@@ -5345,34 +5215,24 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="I101">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>HOLRM-4</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L101">
         <v>0</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>SS7976</t>
-        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5387,43 +5247,1402 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>120</v>
+      </c>
+      <c r="I102">
+        <v>-1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>140</v>
+      </c>
+      <c r="I103">
+        <v>-1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>106</v>
+      </c>
+      <c r="I104">
+        <v>-1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>134</v>
+      </c>
+      <c r="I105">
+        <v>-1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>145</v>
+      </c>
+      <c r="I106">
+        <v>-1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>DIPLANN</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>119</v>
+      </c>
+      <c r="I107">
+        <v>-1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>URANSCA</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>139</v>
+      </c>
+      <c r="I108">
+        <v>-1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>MULLBAR</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>113</v>
+      </c>
+      <c r="I109">
+        <v>17</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>25</v>
+      </c>
+      <c r="I110">
+        <v>9</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SOLEIMP</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>175</v>
+      </c>
+      <c r="I112">
+        <v>-1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>BUGLLUT</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>115</v>
+      </c>
+      <c r="I113">
+        <v>-1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>BUGLLUT</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>89</v>
+      </c>
+      <c r="I114">
+        <v>-1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>58</v>
+      </c>
+      <c r="I115">
+        <v>116</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>207</v>
+      </c>
+      <c r="I116">
+        <v>45</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>177</v>
+      </c>
+      <c r="I117">
+        <v>23</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>217</v>
+      </c>
+      <c r="I118">
+        <v>49</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>450</v>
+      </c>
+      <c r="I119">
+        <v>562</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>455</v>
+      </c>
+      <c r="I120">
+        <v>601</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>335</v>
+      </c>
+      <c r="I121">
+        <v>263</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>2-RAP</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>SOLEVUL</t>
         </is>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>274</v>
-      </c>
-      <c r="I102">
-        <v>200</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>186</v>
+      </c>
+      <c r="I122">
+        <v>52</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>SS8128</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>249</v>
+      </c>
+      <c r="I123">
+        <v>133</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>HOLRA-3</t>
         </is>
       </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>SS7977</t>
-        </is>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>SS8129</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>251</v>
+      </c>
+      <c r="I124">
+        <v>122</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>SS8130</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SOLEAEG</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>310</v>
+      </c>
+      <c r="I125">
+        <v>301</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>HOLRA-4</t>
+        </is>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>SA004</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SOLEAEG</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>250</v>
+      </c>
+      <c r="I126">
+        <v>142</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>SA005</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>272</v>
+      </c>
+      <c r="I127">
+        <v>181</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>SS8131</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>145</v>
+      </c>
+      <c r="I128">
+        <v>-1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>133</v>
+      </c>
+      <c r="I129">
+        <v>-1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L129">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
